--- a/GoogleMaps/src/main/resources/LocationPointTest.xlsx
+++ b/GoogleMaps/src/main/resources/LocationPointTest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c63faaad0f5c1657/Desktop/School_Stuff/SRU_FinalYear/CPSC-488/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{A0D37A10-B2A5-476F-A595-6A59C7D9A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{420C2056-3E4B-48B7-95C5-D639DC4415BF}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{A0D37A10-B2A5-476F-A595-6A59C7D9A3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3039B22-9E1E-48CA-9C92-21B5D24F8BCF}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="265">
   <si>
     <t>Latitude</t>
   </si>
@@ -809,6 +809,15 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>515 E Locust St</t>
+  </si>
+  <si>
+    <t>210 Campus Ln</t>
+  </si>
+  <si>
+    <t>590 Protzman Rd</t>
   </si>
 </sst>
 </file>
@@ -816,7 +825,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -943,17 +952,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1294,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K251"/>
+  <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="E232" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9078,6 +9087,105 @@
         <v>1</v>
       </c>
     </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>281</v>
+      </c>
+      <c r="B252" t="s">
+        <v>262</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D252" s="4">
+        <v>40.299003249999998</v>
+      </c>
+      <c r="E252" s="4">
+        <v>-79.543466543308099</v>
+      </c>
+      <c r="F252">
+        <v>0</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>0</v>
+      </c>
+      <c r="I252" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="3"/>
+      <c r="K252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>282</v>
+      </c>
+      <c r="B253" t="s">
+        <v>263</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D253" s="4">
+        <v>39.567607199999998</v>
+      </c>
+      <c r="E253" s="4">
+        <v>-76.276623700000002</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>0</v>
+      </c>
+      <c r="I253" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="3"/>
+      <c r="K253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>283</v>
+      </c>
+      <c r="B254" t="s">
+        <v>264</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D254" s="4">
+        <v>40.856393400000002</v>
+      </c>
+      <c r="E254" s="4">
+        <v>79.847550400000003</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>0</v>
+      </c>
+      <c r="I254" t="b">
+        <v>0</v>
+      </c>
+      <c r="J254" s="3"/>
+      <c r="K254" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
